--- a/src/main/resources/网站数据.xlsx
+++ b/src/main/resources/网站数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mojie/Desktop/JAVA/yibi-backend/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39FC98E-9F0D-614D-AD27-C2D797951ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0974D3F-8442-2948-9E6E-FE95F1B0C690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3440" yWindow="2660" windowWidth="28060" windowHeight="16940" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -476,7 +476,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>30</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
